--- a/InputData/endo-learn/FoTOMRAEL/Frac of Tech Outside Modeled Region Affecting Endo Learning.xlsx
+++ b/InputData/endo-learn/FoTOMRAEL/Frac of Tech Outside Modeled Region Affecting Endo Learning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\ctrl-settings\FoTOMRAEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/endo-learn/fotomrael/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D1A431-AF32-4B88-8B24-231C99A9E877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4E918-57E9-BF4C-8D65-63974F6CD878}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -177,6 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -458,21 +459,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="2" max="2" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="7">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -480,93 +484,93 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -586,12 +590,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -599,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>

--- a/InputData/endo-learn/FoTOMRAEL/Frac of Tech Outside Modeled Region Affecting Endo Learning.xlsx
+++ b/InputData/endo-learn/FoTOMRAEL/Frac of Tech Outside Modeled Region Affecting Endo Learning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/endo-learn/fotomrael/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/endo-learn/fotomrael/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4E918-57E9-BF4C-8D65-63974F6CD878}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E737C2-2ACC-224A-A3C6-62DCCFEE7B2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
